--- a/Result/21-09-24/NASDAQstock_21-09-24period252RS90.xlsx
+++ b/Result/21-09-24/NASDAQstock_21-09-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/21-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FD07C-754C-4742-AA41-EBF7C96E66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C27311C-E2F3-BC47-B5AB-11152AA7756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,745 +136,747 @@
     <t>EM Rating</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2024-10-29 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Insurance - Property &amp; Casualty</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>2024-10-31 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>REIT - Specialty</t>
+  </si>
+  <si>
+    <t>YOU</t>
+  </si>
+  <si>
+    <t>NaT</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>PIPR</t>
+  </si>
+  <si>
+    <t>2024-10-25 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>JLL</t>
+  </si>
+  <si>
+    <t>Real Estate Services</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>2024-10-23 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
+    <t>EGO</t>
+  </si>
+  <si>
+    <t>2024-10-24 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>VIRT</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>2024-11-01 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>TGS</t>
+  </si>
+  <si>
+    <t>2024-11-04 14:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Integrated</t>
+  </si>
+  <si>
+    <t>ERIE</t>
+  </si>
+  <si>
+    <t>Insurance Brokers</t>
+  </si>
+  <si>
+    <t>MBIN</t>
+  </si>
+  <si>
+    <t>Banks - Regional</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>2024-10-22 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defense</t>
+  </si>
+  <si>
+    <t>TMDX</t>
+  </si>
+  <si>
+    <t>2024-11-04 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>TIGO</t>
+  </si>
+  <si>
+    <t>2024-11-07 08:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Telecom Services</t>
+  </si>
+  <si>
+    <t>ADMA</t>
+  </si>
+  <si>
+    <t>2024-11-06 05:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>GRBK</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Residential Construction</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>2024-10-30 16:00:00-04:00</t>
+  </si>
+  <si>
+    <t>ENVA</t>
+  </si>
+  <si>
+    <t>2024-10-22 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Credit Services</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>2024-11-05 05:00:00-05:00</t>
+  </si>
+  <si>
+    <t>SEMR</t>
+  </si>
+  <si>
+    <t>2024-10-30 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Internet Content &amp; Information</t>
+  </si>
+  <si>
+    <t>ONON</t>
+  </si>
+  <si>
+    <t>2024-11-11 08:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Footwear &amp; Accessories</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>2024-10-23 16:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
+  </si>
+  <si>
+    <t>BRFS</t>
+  </si>
+  <si>
+    <t>2024-11-13 14:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Packaged Foods</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>Software - Infrastructure</t>
+  </si>
+  <si>
+    <t>POWL</t>
+  </si>
+  <si>
+    <t>2024-12-03 05:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Electrical Equipment &amp; Parts</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>2024-11-06 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>GVA</t>
+  </si>
+  <si>
+    <t>2024-10-29 11:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Construction</t>
+  </si>
+  <si>
+    <t>ERJ</t>
+  </si>
+  <si>
+    <t>2024-11-08 06:00:00-05:00</t>
+  </si>
+  <si>
+    <t>LPX</t>
+  </si>
+  <si>
+    <t>2024-10-30 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Building Products &amp; Equipment</t>
+  </si>
+  <si>
+    <t>GATO</t>
+  </si>
+  <si>
+    <t>Other Precious Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>EVR</t>
+  </si>
+  <si>
+    <t>ASPN</t>
+  </si>
+  <si>
+    <t>OSCR</t>
+  </si>
+  <si>
+    <t>2024-11-05 08:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Healthcare Plans</t>
+  </si>
+  <si>
+    <t>BLBD</t>
+  </si>
+  <si>
+    <t>2024-12-09 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Farm &amp; Heavy Construction Machinery</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>2024-11-13 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>INTR</t>
+  </si>
+  <si>
+    <t>GGAL</t>
+  </si>
+  <si>
+    <t>2024-11-19 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>2024-10-24 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>HLNE</t>
+  </si>
+  <si>
+    <t>Asset Management</t>
+  </si>
+  <si>
+    <t>ACIW</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>2024-10-31 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>CAVA</t>
+  </si>
+  <si>
+    <t>2024-11-05 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>MHO</t>
+  </si>
+  <si>
+    <t>2024-10-23 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>FRPT</t>
+  </si>
+  <si>
+    <t>2024-11-04 08:00:00-05:00</t>
+  </si>
+  <si>
+    <t>MNDY</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Furnishings, Fixtures &amp; Appliances</t>
+  </si>
+  <si>
+    <t>ATGE</t>
+  </si>
+  <si>
+    <t>Education &amp; Training Services</t>
+  </si>
+  <si>
+    <t>CHEF</t>
+  </si>
+  <si>
+    <t>Food Distribution</t>
+  </si>
+  <si>
+    <t>AROC</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Equipment &amp; Services</t>
+  </si>
+  <si>
+    <t>THC</t>
+  </si>
+  <si>
+    <t>2024-10-28 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>LDOS</t>
+  </si>
+  <si>
+    <t>2024-10-29 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>VERX</t>
+  </si>
+  <si>
+    <t>SHAK</t>
+  </si>
+  <si>
+    <t>RVLV</t>
+  </si>
+  <si>
+    <t>Internet Retail</t>
+  </si>
+  <si>
+    <t>BGC</t>
+  </si>
+  <si>
+    <t>2024-10-28 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>PTGX</t>
+  </si>
+  <si>
+    <t>2024-10-31 16:00:00-04:00</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>Travel Services</t>
+  </si>
+  <si>
+    <t>VIST</t>
+  </si>
+  <si>
+    <t>2024-10-22 16:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas E&amp;P</t>
+  </si>
+  <si>
+    <t>AEM</t>
+  </si>
+  <si>
+    <t>NMRK</t>
+  </si>
+  <si>
+    <t>STRL</t>
+  </si>
+  <si>
+    <t>2024-11-04 05:00:00-05:00</t>
+  </si>
+  <si>
+    <t>BURL</t>
+  </si>
+  <si>
+    <t>2024-11-19 08:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Apparel Retail</t>
+  </si>
+  <si>
+    <t>AXON</t>
+  </si>
+  <si>
+    <t>ITRI</t>
+  </si>
+  <si>
+    <t>Scientific &amp; Technical Instruments</t>
+  </si>
+  <si>
+    <t>EME</t>
+  </si>
+  <si>
+    <t>IDCC</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>Railroads</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>AGX</t>
+  </si>
+  <si>
+    <t>2024-12-04 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>ROAD</t>
+  </si>
+  <si>
+    <t>2024-11-27 08:00:00-05:00</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>2024-10-17 16:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>PNTG</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Utilities - Independent Power Producers</t>
+  </si>
+  <si>
+    <t>PSN</t>
+  </si>
+  <si>
+    <t>KNF</t>
+  </si>
+  <si>
+    <t>Building Materials</t>
+  </si>
+  <si>
+    <t>COOP</t>
+  </si>
+  <si>
+    <t>Mortgage Finance</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>2024-10-18 07:00:00-04:00</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>KGC</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>ULH</t>
+  </si>
+  <si>
+    <t>Trucking</t>
+  </si>
+  <si>
+    <t>PLMR</t>
+  </si>
+  <si>
+    <t>CWK</t>
+  </si>
+  <si>
+    <t>TILE</t>
+  </si>
+  <si>
+    <t>COLL</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - Specialty &amp; Generic</t>
+  </si>
+  <si>
+    <t>AAON</t>
+  </si>
+  <si>
+    <t>QFIN</t>
+  </si>
+  <si>
+    <t>2024-11-14 16:00:00-05:00</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
+    <t>ABCB</t>
+  </si>
+  <si>
+    <t>SFM</t>
+  </si>
+  <si>
+    <t>Grocery Stores</t>
+  </si>
+  <si>
+    <t>SLVM</t>
+  </si>
+  <si>
+    <t>Paper &amp; Paper Products</t>
+  </si>
+  <si>
+    <t>CSWI</t>
+  </si>
+  <si>
+    <t>KARO</t>
+  </si>
+  <si>
+    <t>2024-10-09 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>PJT</t>
+  </si>
+  <si>
+    <t>KBH</t>
+  </si>
+  <si>
+    <t>2024-09-24 16:00:00-04:00</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>DOCS</t>
+  </si>
+  <si>
+    <t>2024-11-07 05:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Health Information Services</t>
+  </si>
+  <si>
+    <t>CVLT</t>
+  </si>
+  <si>
+    <t>VCTR</t>
+  </si>
+  <si>
+    <t>UFPT</t>
+  </si>
+  <si>
+    <t>RMD</t>
+  </si>
+  <si>
+    <t>Medical Instruments &amp; Supplies</t>
+  </si>
+  <si>
+    <t>SPXC</t>
+  </si>
+  <si>
+    <t>PRIM</t>
+  </si>
+  <si>
+    <t>PATK</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>2024-10-17 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>HWKN</t>
+  </si>
+  <si>
+    <t>Specialty Chemicals</t>
+  </si>
+  <si>
+    <t>KTB</t>
+  </si>
+  <si>
+    <t>Apparel Manufacturing</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>LRN</t>
+  </si>
+  <si>
+    <t>PHM</t>
+  </si>
+  <si>
+    <t>AYI</t>
+  </si>
+  <si>
+    <t>2024-10-01 08:00:00-04:00</t>
+  </si>
+  <si>
+    <t>AWI</t>
+  </si>
+  <si>
+    <t>BOOT</t>
+  </si>
+  <si>
+    <t>FBK</t>
+  </si>
+  <si>
+    <t>2024-10-14 06:00:00-04:00</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>2024-11-14 05:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Specialty Retail</t>
+  </si>
+  <si>
+    <t>UMBF</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>Rental &amp; Leasing Services</t>
+  </si>
+  <si>
+    <t>ATMU</t>
+  </si>
+  <si>
+    <t>Pollution &amp; Treatment Controls</t>
+  </si>
+  <si>
+    <t>Metal Fabrication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MCY</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2024-10-29 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Insurance - Property &amp; Casualty</t>
-  </si>
-  <si>
-    <t>IRM</t>
-  </si>
-  <si>
-    <t>2024-10-31 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>REIT - Specialty</t>
-  </si>
-  <si>
-    <t>YOU</t>
-  </si>
-  <si>
-    <t>NaT</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
-    <t>PIPR</t>
-  </si>
-  <si>
-    <t>2024-10-25 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Capital Markets</t>
-  </si>
-  <si>
-    <t>JLL</t>
-  </si>
-  <si>
-    <t>Real Estate Services</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>2024-10-23 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Communication Equipment</t>
-  </si>
-  <si>
-    <t>EGO</t>
-  </si>
-  <si>
-    <t>2024-10-24 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>VIRT</t>
-  </si>
-  <si>
-    <t>PGR</t>
-  </si>
-  <si>
-    <t>2024-11-01 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>TGS</t>
-  </si>
-  <si>
-    <t>2024-11-04 14:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas Integrated</t>
-  </si>
-  <si>
-    <t>ERIE</t>
-  </si>
-  <si>
-    <t>Insurance Brokers</t>
-  </si>
-  <si>
-    <t>MBIN</t>
-  </si>
-  <si>
-    <t>Banks - Regional</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>2024-10-22 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Aerospace &amp; Defense</t>
-  </si>
-  <si>
-    <t>TMDX</t>
-  </si>
-  <si>
-    <t>2024-11-04 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>TIGO</t>
-  </si>
-  <si>
-    <t>2024-11-07 08:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Telecom Services</t>
-  </si>
-  <si>
-    <t>ADMA</t>
-  </si>
-  <si>
-    <t>2024-11-06 05:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Biotechnology</t>
-  </si>
-  <si>
-    <t>GRBK</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Residential Construction</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>2024-10-30 16:00:00-04:00</t>
-  </si>
-  <si>
-    <t>ENVA</t>
-  </si>
-  <si>
-    <t>2024-10-22 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Credit Services</t>
-  </si>
-  <si>
-    <t>HOOD</t>
-  </si>
-  <si>
-    <t>2024-11-05 05:00:00-05:00</t>
-  </si>
-  <si>
-    <t>SEMR</t>
-  </si>
-  <si>
-    <t>2024-10-30 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Internet Content &amp; Information</t>
-  </si>
-  <si>
-    <t>ONON</t>
-  </si>
-  <si>
-    <t>2024-11-11 08:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Footwear &amp; Accessories</t>
-  </si>
-  <si>
-    <t>UHS</t>
-  </si>
-  <si>
-    <t>2024-10-23 16:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Medical Care Facilities</t>
-  </si>
-  <si>
-    <t>BRFS</t>
-  </si>
-  <si>
-    <t>2024-11-13 14:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Packaged Foods</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>Software - Infrastructure</t>
-  </si>
-  <si>
-    <t>POWL</t>
-  </si>
-  <si>
-    <t>2024-12-03 05:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Electrical Equipment &amp; Parts</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>2024-11-06 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>GVA</t>
-  </si>
-  <si>
-    <t>2024-10-29 11:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Engineering &amp; Construction</t>
-  </si>
-  <si>
-    <t>ERJ</t>
-  </si>
-  <si>
-    <t>2024-11-08 06:00:00-05:00</t>
-  </si>
-  <si>
-    <t>LPX</t>
-  </si>
-  <si>
-    <t>2024-10-30 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Building Products &amp; Equipment</t>
-  </si>
-  <si>
-    <t>GATO</t>
-  </si>
-  <si>
-    <t>Other Precious Metals &amp; Mining</t>
-  </si>
-  <si>
-    <t>EVR</t>
-  </si>
-  <si>
-    <t>ASPN</t>
-  </si>
-  <si>
-    <t>OSCR</t>
-  </si>
-  <si>
-    <t>2024-11-05 08:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Healthcare Plans</t>
-  </si>
-  <si>
-    <t>BLBD</t>
-  </si>
-  <si>
-    <t>2024-12-09 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Farm &amp; Heavy Construction Machinery</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>2024-11-13 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>INTR</t>
-  </si>
-  <si>
-    <t>GGAL</t>
-  </si>
-  <si>
-    <t>2024-11-19 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>2024-10-24 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Metal Fabrication</t>
-  </si>
-  <si>
-    <t>HLNE</t>
-  </si>
-  <si>
-    <t>Asset Management</t>
-  </si>
-  <si>
-    <t>ACIW</t>
-  </si>
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t>2024-10-31 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>CAVA</t>
-  </si>
-  <si>
-    <t>2024-11-05 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Restaurants</t>
-  </si>
-  <si>
-    <t>MHO</t>
-  </si>
-  <si>
-    <t>2024-10-23 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>FRPT</t>
-  </si>
-  <si>
-    <t>2024-11-04 08:00:00-05:00</t>
-  </si>
-  <si>
-    <t>MNDY</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>Furnishings, Fixtures &amp; Appliances</t>
-  </si>
-  <si>
-    <t>ATGE</t>
-  </si>
-  <si>
-    <t>Education &amp; Training Services</t>
-  </si>
-  <si>
-    <t>CHEF</t>
-  </si>
-  <si>
-    <t>Food Distribution</t>
-  </si>
-  <si>
-    <t>AROC</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas Equipment &amp; Services</t>
-  </si>
-  <si>
-    <t>THC</t>
-  </si>
-  <si>
-    <t>2024-10-28 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>LDOS</t>
-  </si>
-  <si>
-    <t>2024-10-29 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Information Technology Services</t>
-  </si>
-  <si>
-    <t>VERX</t>
-  </si>
-  <si>
-    <t>SHAK</t>
-  </si>
-  <si>
-    <t>RVLV</t>
-  </si>
-  <si>
-    <t>Internet Retail</t>
-  </si>
-  <si>
-    <t>BGC</t>
-  </si>
-  <si>
-    <t>2024-10-28 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>PTGX</t>
-  </si>
-  <si>
-    <t>2024-10-31 16:00:00-04:00</t>
-  </si>
-  <si>
-    <t>FIX</t>
-  </si>
-  <si>
-    <t>RCL</t>
-  </si>
-  <si>
-    <t>Travel Services</t>
-  </si>
-  <si>
-    <t>VIST</t>
-  </si>
-  <si>
-    <t>2024-10-22 16:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas E&amp;P</t>
-  </si>
-  <si>
-    <t>AEM</t>
-  </si>
-  <si>
-    <t>NMRK</t>
-  </si>
-  <si>
-    <t>STRL</t>
-  </si>
-  <si>
-    <t>2024-11-04 05:00:00-05:00</t>
-  </si>
-  <si>
-    <t>BURL</t>
-  </si>
-  <si>
-    <t>2024-11-19 08:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Apparel Retail</t>
-  </si>
-  <si>
-    <t>AXON</t>
-  </si>
-  <si>
-    <t>ITRI</t>
-  </si>
-  <si>
-    <t>Scientific &amp; Technical Instruments</t>
-  </si>
-  <si>
-    <t>EME</t>
-  </si>
-  <si>
-    <t>IDCC</t>
-  </si>
-  <si>
-    <t>WAB</t>
-  </si>
-  <si>
-    <t>Railroads</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>AGX</t>
-  </si>
-  <si>
-    <t>2024-12-04 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>ROAD</t>
-  </si>
-  <si>
-    <t>2024-11-27 08:00:00-05:00</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>2024-10-17 16:00:00-04:00</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>PNTG</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Utilities - Independent Power Producers</t>
-  </si>
-  <si>
-    <t>PSN</t>
-  </si>
-  <si>
-    <t>KNF</t>
-  </si>
-  <si>
-    <t>Building Materials</t>
-  </si>
-  <si>
-    <t>COOP</t>
-  </si>
-  <si>
-    <t>Mortgage Finance</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>2024-10-18 07:00:00-04:00</t>
-  </si>
-  <si>
-    <t>HWM</t>
-  </si>
-  <si>
-    <t>KGC</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>ULH</t>
-  </si>
-  <si>
-    <t>Trucking</t>
-  </si>
-  <si>
-    <t>PLMR</t>
-  </si>
-  <si>
-    <t>CWK</t>
-  </si>
-  <si>
-    <t>TILE</t>
-  </si>
-  <si>
-    <t>COLL</t>
-  </si>
-  <si>
-    <t>Drug Manufacturers - Specialty &amp; Generic</t>
-  </si>
-  <si>
-    <t>AAON</t>
-  </si>
-  <si>
-    <t>QFIN</t>
-  </si>
-  <si>
-    <t>2024-11-14 16:00:00-05:00</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Specialty Industrial Machinery</t>
-  </si>
-  <si>
-    <t>ABCB</t>
-  </si>
-  <si>
-    <t>SFM</t>
-  </si>
-  <si>
-    <t>Grocery Stores</t>
-  </si>
-  <si>
-    <t>SLVM</t>
-  </si>
-  <si>
-    <t>Paper &amp; Paper Products</t>
-  </si>
-  <si>
-    <t>CSWI</t>
-  </si>
-  <si>
-    <t>KARO</t>
-  </si>
-  <si>
-    <t>2024-10-09 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>PJT</t>
-  </si>
-  <si>
-    <t>KBH</t>
-  </si>
-  <si>
-    <t>2024-09-24 16:00:00-04:00</t>
-  </si>
-  <si>
-    <t>ANET</t>
-  </si>
-  <si>
-    <t>Computer Hardware</t>
-  </si>
-  <si>
-    <t>DOCS</t>
-  </si>
-  <si>
-    <t>2024-11-07 05:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Health Information Services</t>
-  </si>
-  <si>
-    <t>CVLT</t>
-  </si>
-  <si>
-    <t>VCTR</t>
-  </si>
-  <si>
-    <t>UFPT</t>
-  </si>
-  <si>
-    <t>RMD</t>
-  </si>
-  <si>
-    <t>Medical Instruments &amp; Supplies</t>
-  </si>
-  <si>
-    <t>SPXC</t>
-  </si>
-  <si>
-    <t>PRIM</t>
-  </si>
-  <si>
-    <t>PATK</t>
-  </si>
-  <si>
-    <t>MV</t>
-  </si>
-  <si>
-    <t>DY</t>
-  </si>
-  <si>
-    <t>ISRG</t>
-  </si>
-  <si>
-    <t>2024-10-17 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>HWKN</t>
-  </si>
-  <si>
-    <t>Specialty Chemicals</t>
-  </si>
-  <si>
-    <t>KTB</t>
-  </si>
-  <si>
-    <t>Apparel Manufacturing</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>LRN</t>
-  </si>
-  <si>
-    <t>PHM</t>
-  </si>
-  <si>
-    <t>AYI</t>
-  </si>
-  <si>
-    <t>2024-10-01 08:00:00-04:00</t>
-  </si>
-  <si>
-    <t>AWI</t>
-  </si>
-  <si>
-    <t>BOOT</t>
-  </si>
-  <si>
-    <t>FBK</t>
-  </si>
-  <si>
-    <t>2024-10-14 06:00:00-04:00</t>
-  </si>
-  <si>
-    <t>WSM</t>
-  </si>
-  <si>
-    <t>2024-11-14 05:00:00-05:00</t>
-  </si>
-  <si>
-    <t>Specialty Retail</t>
-  </si>
-  <si>
-    <t>UMBF</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>Rental &amp; Leasing Services</t>
-  </si>
-  <si>
-    <t>ATMU</t>
-  </si>
-  <si>
-    <t>Pollution &amp; Treatment Controls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -893,6 +895,7 @@
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -1269,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="B2">
         <v>95.770603756014282</v>
@@ -1462,7 +1465,7 @@
         <v>3.33</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z2">
         <v>1567.37</v>
@@ -1483,13 +1486,13 @@
         <v>2406.67</v>
       </c>
       <c r="AF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>41</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>42</v>
       </c>
       <c r="AI2">
         <v>5.77</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>93.1864038491386</v>
@@ -1597,13 +1600,13 @@
         <v>-67.739999999999995</v>
       </c>
       <c r="AF3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="AI3" s="4">
         <v>0.78</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>90.121061617259045</v>
@@ -1689,7 +1692,7 @@
         <v>4.57</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z4">
         <v>119.21</v>
@@ -1710,13 +1713,13 @@
         <v>-5.88</v>
       </c>
       <c r="AF4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" t="s">
         <v>48</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>49</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>50</v>
       </c>
       <c r="AI4">
         <v>0.78</v>
@@ -1733,7 +1736,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>94.404780381809715</v>
@@ -1823,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH5" t="s">
         <v>52</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>53</v>
       </c>
       <c r="AI5">
         <v>7.63</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>91.905944435821823</v>
@@ -1936,13 +1939,13 @@
         <v>189.6</v>
       </c>
       <c r="AF6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG6" t="s">
         <v>44</v>
       </c>
-      <c r="AG6" t="s">
-        <v>45</v>
-      </c>
       <c r="AH6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI6">
         <v>7.92</v>
@@ -1959,7 +1962,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>98.944591029023741</v>
@@ -2052,13 +2055,13 @@
         <v>5.08</v>
       </c>
       <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" t="s">
         <v>57</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>58</v>
       </c>
       <c r="AI7">
         <v>0.28000000000000003</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2">
         <v>92.162036318485178</v>
@@ -2145,7 +2148,7 @@
         <v>3.59</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z8" s="2">
         <v>136.84</v>
@@ -2166,13 +2169,13 @@
         <v>-500</v>
       </c>
       <c r="AF8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="AI8" s="2">
         <v>0.88</v>
@@ -2189,7 +2192,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>92.596616483004809</v>
@@ -2279,13 +2282,13 @@
         <v>293.75</v>
       </c>
       <c r="AF9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI9">
         <v>1.99</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>93.1864038491386</v>
@@ -2392,13 +2395,13 @@
         <v>78.42</v>
       </c>
       <c r="AF10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH10" t="s">
         <v>41</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>42</v>
       </c>
       <c r="AI10">
         <v>11.69</v>
@@ -2415,7 +2418,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>93.349371410833456</v>
@@ -2505,13 +2508,13 @@
         <v>-150.56</v>
       </c>
       <c r="AF11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG11" t="s">
         <v>67</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>68</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>69</v>
       </c>
       <c r="AI11">
         <v>0.72</v>
@@ -2528,7 +2531,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>92.596616483004809</v>
@@ -2618,13 +2621,13 @@
         <v>11.37</v>
       </c>
       <c r="AF12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI12">
         <v>10.15</v>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>90.400434580164529</v>
@@ -2731,13 +2734,13 @@
         <v>-4.76</v>
       </c>
       <c r="AF13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI13">
         <v>6.55</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>95.289461431010409</v>
@@ -2823,7 +2826,7 @@
         <v>203.23</v>
       </c>
       <c r="Y14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z14">
         <v>87.36</v>
@@ -2844,13 +2847,13 @@
         <v>508.33</v>
       </c>
       <c r="AF14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s">
         <v>75</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>76</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>77</v>
       </c>
       <c r="AI14">
         <v>3.69</v>
@@ -2867,7 +2870,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>98.246158621760046</v>
@@ -2957,13 +2960,13 @@
         <v>-2500</v>
       </c>
       <c r="AF15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s">
         <v>79</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>80</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>81</v>
       </c>
       <c r="AI15">
         <v>0.03</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2">
         <v>91.626571472916339</v>
@@ -3050,7 +3053,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z16" s="2">
         <v>639.17999999999995</v>
@@ -3067,13 +3070,13 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AI16" s="2">
         <v>0.6</v>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>99.689585596771693</v>
@@ -3180,13 +3183,13 @@
         <v>133.33000000000001</v>
       </c>
       <c r="AF17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s">
         <v>87</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>88</v>
       </c>
       <c r="AI17">
         <v>0.14000000000000001</v>
@@ -3203,7 +3206,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>94.001241657612908</v>
@@ -3293,13 +3296,13 @@
         <v>1.27</v>
       </c>
       <c r="AF18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH18" t="s">
         <v>90</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>91</v>
       </c>
       <c r="AI18">
         <v>7.28</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>90.400434580164529</v>
@@ -3385,7 +3388,7 @@
         <v>50.43</v>
       </c>
       <c r="Y19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z19">
         <v>1480.66</v>
@@ -3406,13 +3409,13 @@
         <v>3575</v>
       </c>
       <c r="AF19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" t="s">
         <v>41</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>42</v>
       </c>
       <c r="AI19">
         <v>10.96</v>
@@ -3429,7 +3432,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20">
         <v>92.162036318485178</v>
@@ -3519,13 +3522,13 @@
         <v>-11.85</v>
       </c>
       <c r="AF20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH20" t="s">
         <v>95</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>96</v>
       </c>
       <c r="AI20">
         <v>6</v>
@@ -3542,7 +3545,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>96.236225360856736</v>
@@ -3632,13 +3635,13 @@
         <v>122.22</v>
       </c>
       <c r="AF21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI21">
         <v>0.31</v>
@@ -3655,7 +3658,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>93.1864038491386</v>
@@ -3724,7 +3727,7 @@
         <v>2.23</v>
       </c>
       <c r="Y22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z22">
         <v>118.84</v>
@@ -3745,13 +3748,13 @@
         <v>73.33</v>
       </c>
       <c r="AF22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH22" t="s">
         <v>49</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>50</v>
       </c>
       <c r="AI22">
         <v>0.11</v>
@@ -3768,7 +3771,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>96.422474002793734</v>
@@ -3804,7 +3807,7 @@
         <v>1.06</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3861,13 +3864,13 @@
         <v>-206.1</v>
       </c>
       <c r="AF23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI23">
         <v>2.52</v>
@@ -3884,7 +3887,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>90.695328263231417</v>
@@ -3953,7 +3956,7 @@
         <v>15.99</v>
       </c>
       <c r="Y24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z24">
         <v>145.91999999999999</v>
@@ -3974,13 +3977,13 @@
         <v>1939.64</v>
       </c>
       <c r="AF24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH24" t="s">
         <v>105</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>106</v>
       </c>
       <c r="AI24">
         <v>0.55000000000000004</v>
@@ -3997,7 +4000,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>93.504578612447617</v>
@@ -4087,13 +4090,13 @@
         <v>31.4</v>
       </c>
       <c r="AF25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s">
         <v>108</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>109</v>
       </c>
       <c r="AI25">
         <v>13.61</v>
@@ -4110,7 +4113,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>96.732888406022042</v>
@@ -4200,13 +4203,13 @@
         <v>80.67</v>
       </c>
       <c r="AF26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG26" t="s">
         <v>111</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>112</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>113</v>
       </c>
       <c r="AI26">
         <v>0.3</v>
@@ -4223,7 +4226,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>97.384758652801494</v>
@@ -4295,7 +4298,7 @@
         <v>83.31</v>
       </c>
       <c r="Y27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z27">
         <v>41.8</v>
@@ -4316,13 +4319,13 @@
         <v>66.67</v>
       </c>
       <c r="AF27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI27">
         <v>0.17</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28">
         <v>97.563246934657769</v>
@@ -4411,7 +4414,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="Y28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z28">
         <v>161.78</v>
@@ -4432,13 +4435,13 @@
         <v>-9.42</v>
       </c>
       <c r="AF28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH28" t="s">
         <v>117</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>118</v>
       </c>
       <c r="AI28">
         <v>10.7</v>
@@ -4455,7 +4458,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29">
         <v>98.781623467328885</v>
@@ -4545,13 +4548,13 @@
         <v>50</v>
       </c>
       <c r="AF29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH29" t="s">
         <v>49</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>50</v>
       </c>
       <c r="AI29">
         <v>2.35</v>
@@ -4568,7 +4571,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30">
         <v>95.46794971286667</v>
@@ -4658,13 +4661,13 @@
         <v>435.9</v>
       </c>
       <c r="AF30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s">
         <v>122</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>123</v>
       </c>
       <c r="AI30">
         <v>2.0099999999999998</v>
@@ -4681,7 +4684,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>96.973459568523978</v>
@@ -4750,7 +4753,7 @@
         <v>6.45</v>
       </c>
       <c r="Y31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z31">
         <v>88.95</v>
@@ -4771,13 +4774,13 @@
         <v>211.77</v>
       </c>
       <c r="AF31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s">
         <v>76</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>77</v>
       </c>
       <c r="AI31">
         <v>2.06</v>
@@ -4794,7 +4797,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="4">
         <v>93.349371410833456</v>
@@ -4885,13 +4888,13 @@
         <v>-49.08</v>
       </c>
       <c r="AF32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH32" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="AG32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH32" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="AI32" s="4">
         <v>6.15</v>
@@ -4908,7 +4911,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33">
         <v>98.067670339903771</v>
@@ -4977,7 +4980,7 @@
         <v>1.08</v>
       </c>
       <c r="Y33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z33">
         <v>154.16999999999999</v>
@@ -4998,13 +5001,13 @@
         <v>260</v>
       </c>
       <c r="AF33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI33">
         <v>0.39</v>
@@ -5021,7 +5024,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34">
         <v>93.349371410833456</v>
@@ -5111,13 +5114,13 @@
         <v>42.27</v>
       </c>
       <c r="AF34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI34">
         <v>7.24</v>
@@ -5134,7 +5137,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35">
         <v>99.410212633866209</v>
@@ -5224,22 +5227,22 @@
         <v>94.74</v>
       </c>
       <c r="AF35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ35">
         <v>0.54</v>
       </c>
       <c r="AK35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL35">
         <v>31.153614069474269</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36">
         <v>99.247245072171353</v>
@@ -5337,13 +5340,13 @@
         <v>-134.47999999999999</v>
       </c>
       <c r="AF36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s">
         <v>134</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>135</v>
       </c>
       <c r="AI36">
         <v>-0.15</v>
@@ -5360,7 +5363,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37">
         <v>98.021108179419528</v>
@@ -5450,13 +5453,13 @@
         <v>39.659999999999997</v>
       </c>
       <c r="AF37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s">
         <v>137</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>138</v>
       </c>
       <c r="AI37">
         <v>3.01</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38">
         <v>95.537792953593055</v>
@@ -5542,7 +5545,7 @@
         <v>70.069999999999993</v>
       </c>
       <c r="Y38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z38">
         <v>73.349999999999994</v>
@@ -5563,13 +5566,13 @@
         <v>19.28</v>
       </c>
       <c r="AF38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI38">
         <v>0.31</v>
@@ -5586,7 +5589,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39">
         <v>91.013503026540434</v>
@@ -5676,13 +5679,13 @@
         <v>58.49</v>
       </c>
       <c r="AF39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI39">
         <v>0.27</v>
@@ -5699,7 +5702,7 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40">
         <v>98.533291944746239</v>
@@ -5789,13 +5792,13 @@
         <v>-52.7</v>
       </c>
       <c r="AF40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI40">
         <v>2.37</v>
@@ -5812,7 +5815,7 @@
     </row>
     <row r="41" spans="1:38">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" s="2">
         <v>96.538879404004348</v>
@@ -5903,13 +5906,13 @@
         <v>-3.37</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH41" s="2" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AI41" s="2">
         <v>3.7</v>
@@ -5926,7 +5929,7 @@
     </row>
     <row r="42" spans="1:38">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B42">
         <v>92.82166692534534</v>
@@ -6016,13 +6019,13 @@
         <v>-53.15</v>
       </c>
       <c r="AF42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI42">
         <v>4.34</v>
@@ -6039,7 +6042,7 @@
     </row>
     <row r="43" spans="1:38">
       <c r="A43" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" s="2">
         <v>96.011174918516218</v>
@@ -6130,13 +6133,13 @@
         <v>222.86</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI43" s="2">
         <v>1.7</v>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="44" spans="1:38">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B44">
         <v>91.626571472916339</v>
@@ -6222,7 +6225,7 @@
         <v>3.03</v>
       </c>
       <c r="Y44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z44">
         <v>154.43</v>
@@ -6243,13 +6246,13 @@
         <v>300</v>
       </c>
       <c r="AF44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AG44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH44" t="s">
         <v>45</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>46</v>
       </c>
       <c r="AI44">
         <v>1.31</v>
@@ -6266,7 +6269,7 @@
     </row>
     <row r="45" spans="1:38">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B45">
         <v>99.332609033059143</v>
@@ -6335,7 +6338,7 @@
         <v>14.72</v>
       </c>
       <c r="Y45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z45">
         <v>99.61</v>
@@ -6356,13 +6359,13 @@
         <v>-73.91</v>
       </c>
       <c r="AF45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI45">
         <v>0.18</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="46" spans="1:38">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46">
         <v>94.404780381809715</v>
@@ -6469,13 +6472,13 @@
         <v>-23.69</v>
       </c>
       <c r="AF46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH46" t="s">
         <v>90</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>91</v>
       </c>
       <c r="AI46">
         <v>18.329999999999998</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="47" spans="1:38">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47">
         <v>95.537792953593055</v>
@@ -6582,13 +6585,13 @@
         <v>313.33</v>
       </c>
       <c r="AF47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH47" t="s">
         <v>112</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>113</v>
       </c>
       <c r="AI47">
         <v>0.51</v>
@@ -6605,7 +6608,7 @@
     </row>
     <row r="48" spans="1:38">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B48">
         <v>92.596616483004809</v>
@@ -6695,13 +6698,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG48" t="s">
         <v>48</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AH48" t="s">
         <v>49</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>50</v>
       </c>
       <c r="AI48">
         <v>0.81</v>
@@ -6718,7 +6721,7 @@
     </row>
     <row r="49" spans="1:38">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B49">
         <v>96.973459568523978</v>
@@ -6787,7 +6790,7 @@
         <v>14.8</v>
       </c>
       <c r="Y49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z49">
         <v>31.09</v>
@@ -6808,13 +6811,13 @@
         <v>44.44</v>
       </c>
       <c r="AF49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AI49">
         <v>1.75</v>
@@ -6831,7 +6834,7 @@
     </row>
     <row r="50" spans="1:38">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50">
         <v>92.162036318485178</v>
@@ -6921,13 +6924,13 @@
         <v>284.62</v>
       </c>
       <c r="AF50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI50">
         <v>3.42</v>
@@ -6944,7 +6947,7 @@
     </row>
     <row r="51" spans="1:38">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51">
         <v>91.013503026540434</v>
@@ -7034,13 +7037,13 @@
         <v>126.32</v>
       </c>
       <c r="AF51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AI51">
         <v>1.03</v>
@@ -7057,7 +7060,7 @@
     </row>
     <row r="52" spans="1:38">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B52">
         <v>91.323917429768741</v>
@@ -7147,13 +7150,13 @@
         <v>5</v>
       </c>
       <c r="AF52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI52">
         <v>0.89</v>
@@ -7170,7 +7173,7 @@
     </row>
     <row r="53" spans="1:38">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53">
         <v>96.903616327797621</v>
@@ -7260,13 +7263,13 @@
         <v>-18.18</v>
       </c>
       <c r="AF53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI53">
         <v>27.47</v>
@@ -7283,7 +7286,7 @@
     </row>
     <row r="54" spans="1:38">
       <c r="A54" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" s="4">
         <v>90.400434580164529</v>
@@ -7374,13 +7377,13 @@
         <v>157.38999999999999</v>
       </c>
       <c r="AF54" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH54" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AI54" s="4">
         <v>3.19</v>
@@ -7397,7 +7400,7 @@
     </row>
     <row r="55" spans="1:38">
       <c r="A55" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B55" s="4">
         <v>92.371566040664291</v>
@@ -7488,13 +7491,13 @@
         <v>581.82000000000005</v>
       </c>
       <c r="AF55" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH55" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="AH55" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="AI55" s="4">
         <v>0.13</v>
@@ -7511,7 +7514,7 @@
     </row>
     <row r="56" spans="1:38">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56">
         <v>92.371566040664291</v>
@@ -7601,13 +7604,13 @@
         <v>-5.26</v>
       </c>
       <c r="AF56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI56">
         <v>0.63</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="57" spans="1:38">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57">
         <v>95.095452428992715</v>
@@ -7714,13 +7717,13 @@
         <v>50</v>
       </c>
       <c r="AF57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AI57">
         <v>0.46</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="58" spans="1:38">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B58">
         <v>93.504578612447617</v>
@@ -7827,13 +7830,13 @@
         <v>160</v>
       </c>
       <c r="AF58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI58">
         <v>0.24</v>
@@ -7850,7 +7853,7 @@
     </row>
     <row r="59" spans="1:38">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B59">
         <v>92.162036318485178</v>
@@ -7919,7 +7922,7 @@
         <v>1.25</v>
       </c>
       <c r="Y59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z59">
         <v>8.82</v>
@@ -7940,13 +7943,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI59">
         <v>0.38</v>
@@ -7963,7 +7966,7 @@
     </row>
     <row r="60" spans="1:38">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B60">
         <v>98.067670339903771</v>
@@ -8053,13 +8056,13 @@
         <v>193.1</v>
       </c>
       <c r="AF60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI60">
         <v>2.72</v>
@@ -8076,7 +8079,7 @@
     </row>
     <row r="61" spans="1:38">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B61">
         <v>95.956852397951266</v>
@@ -8166,13 +8169,13 @@
         <v>-12.63</v>
       </c>
       <c r="AF61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI61">
         <v>11.9</v>
@@ -8189,7 +8192,7 @@
     </row>
     <row r="62" spans="1:38">
       <c r="A62" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B62" s="4">
         <v>93.1864038491386</v>
@@ -8280,13 +8283,13 @@
         <v>-72.34</v>
       </c>
       <c r="AF62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH62" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AI62" s="4">
         <v>9.17</v>
@@ -8303,7 +8306,7 @@
     </row>
     <row r="63" spans="1:38">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B63">
         <v>92.371566040664291</v>
@@ -8372,7 +8375,7 @@
         <v>4.51</v>
       </c>
       <c r="Y63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z63">
         <v>29.31</v>
@@ -8393,13 +8396,13 @@
         <v>57.78</v>
       </c>
       <c r="AF63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI63">
         <v>4.34</v>
@@ -8416,7 +8419,7 @@
     </row>
     <row r="64" spans="1:38">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B64">
         <v>90.121061617259045</v>
@@ -8485,7 +8488,7 @@
         <v>41.65</v>
       </c>
       <c r="Y64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z64">
         <v>66.48</v>
@@ -8506,13 +8509,13 @@
         <v>-355.56</v>
       </c>
       <c r="AF64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH64" t="s">
         <v>61</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>62</v>
       </c>
       <c r="AI64">
         <v>1.1599999999999999</v>
@@ -8529,7 +8532,7 @@
     </row>
     <row r="65" spans="1:38">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B65">
         <v>96.344870401986654</v>
@@ -8619,13 +8622,13 @@
         <v>50</v>
       </c>
       <c r="AF65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI65">
         <v>0.25</v>
@@ -8642,7 +8645,7 @@
     </row>
     <row r="66" spans="1:38">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B66">
         <v>94.83936054632936</v>
@@ -8735,13 +8738,13 @@
         <v>2.34</v>
       </c>
       <c r="AF66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI66">
         <v>5.19</v>
@@ -8758,7 +8761,7 @@
     </row>
     <row r="67" spans="1:38">
       <c r="A67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B67">
         <v>94.171969579388488</v>
@@ -8845,13 +8848,13 @@
         <v>369.33</v>
       </c>
       <c r="AF67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI67">
         <v>6.62</v>
@@ -8868,7 +8871,7 @@
     </row>
     <row r="68" spans="1:38">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B68">
         <v>94.404780381809715</v>
@@ -8958,13 +8961,13 @@
         <v>-2.5299999999999998</v>
       </c>
       <c r="AF68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG68" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s">
         <v>76</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>77</v>
       </c>
       <c r="AI68">
         <v>3.78</v>
@@ -8981,7 +8984,7 @@
     </row>
     <row r="69" spans="1:38">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B69">
         <v>92.371566040664291</v>
@@ -9050,7 +9053,7 @@
         <v>4.82</v>
       </c>
       <c r="Y69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z69">
         <v>34.49</v>
@@ -9071,13 +9074,13 @@
         <v>11.36</v>
       </c>
       <c r="AF69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI69">
         <v>4.0599999999999996</v>
@@ -9094,7 +9097,7 @@
     </row>
     <row r="70" spans="1:38">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B70">
         <v>95.095452428992715</v>
@@ -9184,13 +9187,13 @@
         <v>24.79</v>
       </c>
       <c r="AF70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI70">
         <v>17.420000000000002</v>
@@ -9207,7 +9210,7 @@
     </row>
     <row r="71" spans="1:38">
       <c r="A71" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B71" s="4">
         <v>91.013503026540434</v>
@@ -9298,13 +9301,13 @@
         <v>124.69</v>
       </c>
       <c r="AF71" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH71" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="AH71" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="AI71" s="4">
         <v>9.9600000000000009</v>
@@ -9321,7 +9324,7 @@
     </row>
     <row r="72" spans="1:38">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B72">
         <v>90.400434580164529</v>
@@ -9411,13 +9414,13 @@
         <v>-10.45</v>
       </c>
       <c r="AF72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI72">
         <v>5.7</v>
@@ -9434,7 +9437,7 @@
     </row>
     <row r="73" spans="1:38">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>93.822753375756633</v>
@@ -9524,13 +9527,13 @@
         <v>48.51</v>
       </c>
       <c r="AF73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI73">
         <v>19.53</v>
@@ -9547,7 +9550,7 @@
     </row>
     <row r="74" spans="1:38">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B74">
         <v>95.871488437063476</v>
@@ -9637,13 +9640,13 @@
         <v>-56.84</v>
       </c>
       <c r="AF74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI74">
         <v>3.19</v>
@@ -9660,7 +9663,7 @@
     </row>
     <row r="75" spans="1:38">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B75">
         <v>95.095452428992715</v>
@@ -9750,13 +9753,13 @@
         <v>-68.33</v>
       </c>
       <c r="AF75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI75">
         <v>1.34</v>
@@ -9773,7 +9776,7 @@
     </row>
     <row r="76" spans="1:38">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B76">
         <v>93.1864038491386</v>
@@ -9863,13 +9866,13 @@
         <v>-42.89</v>
       </c>
       <c r="AF76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AI76">
         <v>15.98</v>
@@ -9886,7 +9889,7 @@
     </row>
     <row r="77" spans="1:38">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B77">
         <v>98.704019866521804</v>
@@ -9976,13 +9979,13 @@
         <v>0</v>
       </c>
       <c r="AF77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI77">
         <v>0.64</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="78" spans="1:38">
       <c r="A78" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B78" s="2">
         <v>96.290547881421702</v>
@@ -10069,7 +10072,7 @@
         <v>17.97</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z78" s="2">
         <v>12.4</v>
@@ -10090,13 +10093,13 @@
         <v>42.25</v>
       </c>
       <c r="AF78" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AH78" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI78" s="2">
         <v>9.1199999999999992</v>
@@ -10113,7 +10116,7 @@
     </row>
     <row r="79" spans="1:38">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B79">
         <v>92.82166692534534</v>
@@ -10203,13 +10206,13 @@
         <v>-4.4400000000000004</v>
       </c>
       <c r="AF79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AI79">
         <v>0.45</v>
@@ -10226,7 +10229,7 @@
     </row>
     <row r="80" spans="1:38">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B80">
         <v>93.000155207201615</v>
@@ -10295,7 +10298,7 @@
         <v>5.14</v>
       </c>
       <c r="Y80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z80">
         <v>15.66</v>
@@ -10316,13 +10319,13 @@
         <v>-85.71</v>
       </c>
       <c r="AF80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH80" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AI80">
         <v>3.49</v>
@@ -10339,7 +10342,7 @@
     </row>
     <row r="81" spans="1:38">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B81">
         <v>90.695328263231417</v>
@@ -10429,13 +10432,13 @@
         <v>-83.57</v>
       </c>
       <c r="AF81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AI81">
         <v>10.56</v>
@@ -10452,7 +10455,7 @@
     </row>
     <row r="82" spans="1:38">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B82">
         <v>91.323917429768741</v>
@@ -10542,13 +10545,13 @@
         <v>-20.3</v>
       </c>
       <c r="AF82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI82">
         <v>13.4</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="83" spans="1:38">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B83">
         <v>95.646437994722959</v>
@@ -10655,13 +10658,13 @@
         <v>26.67</v>
       </c>
       <c r="AF83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG83" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s">
         <v>76</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>77</v>
       </c>
       <c r="AI83">
         <v>2.25</v>
@@ -10678,7 +10681,7 @@
     </row>
     <row r="84" spans="1:38">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B84">
         <v>93.349371410833456</v>
@@ -10747,7 +10750,7 @@
         <v>11.79</v>
       </c>
       <c r="Y84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z84">
         <v>39.39</v>
@@ -10768,13 +10771,13 @@
         <v>-33.33</v>
       </c>
       <c r="AF84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG84" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH84" t="s">
         <v>61</v>
-      </c>
-      <c r="AH84" t="s">
-        <v>62</v>
       </c>
       <c r="AI84">
         <v>0.4</v>
@@ -10791,7 +10794,7 @@
     </row>
     <row r="85" spans="1:38">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B85">
         <v>94.272854260437683</v>
@@ -10881,13 +10884,13 @@
         <v>-19.71</v>
       </c>
       <c r="AF85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI85">
         <v>10.24</v>
@@ -10904,7 +10907,7 @@
     </row>
     <row r="86" spans="1:38">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B86">
         <v>92.596616483004809</v>
@@ -10994,13 +10997,13 @@
         <v>-9.09</v>
       </c>
       <c r="AF86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AI86">
         <v>4.8499999999999996</v>
@@ -11017,7 +11020,7 @@
     </row>
     <row r="87" spans="1:38">
       <c r="A87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B87">
         <v>92.596616483004809</v>
@@ -11107,13 +11110,13 @@
         <v>38.67</v>
       </c>
       <c r="AF87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG87" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH87" t="s">
         <v>41</v>
-      </c>
-      <c r="AH87" t="s">
-        <v>42</v>
       </c>
       <c r="AI87">
         <v>3.8</v>
@@ -11130,7 +11133,7 @@
     </row>
     <row r="88" spans="1:38">
       <c r="A88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B88">
         <v>90.400434580164529</v>
@@ -11220,13 +11223,13 @@
         <v>306.67</v>
       </c>
       <c r="AF88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI88">
         <v>0.08</v>
@@ -11243,7 +11246,7 @@
     </row>
     <row r="89" spans="1:38">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B89">
         <v>94.513425422939619</v>
@@ -11333,13 +11336,13 @@
         <v>-37.04</v>
       </c>
       <c r="AF89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI89">
         <v>1.1299999999999999</v>
@@ -11356,7 +11359,7 @@
     </row>
     <row r="90" spans="1:38">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B90">
         <v>91.323917429768741</v>
@@ -11425,7 +11428,7 @@
         <v>1.26</v>
       </c>
       <c r="Y90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z90">
         <v>14.95</v>
@@ -11446,13 +11449,13 @@
         <v>60.53</v>
       </c>
       <c r="AF90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AI90">
         <v>2.66</v>
@@ -11469,7 +11472,7 @@
     </row>
     <row r="91" spans="1:38">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B91">
         <v>91.013503026540434</v>
@@ -11559,13 +11562,13 @@
         <v>-1.69</v>
       </c>
       <c r="AF91" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI91">
         <v>2.23</v>
@@ -11582,7 +11585,7 @@
     </row>
     <row r="92" spans="1:38">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B92">
         <v>91.013503026540434</v>
@@ -11651,7 +11654,7 @@
         <v>4</v>
       </c>
       <c r="Y92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z92">
         <v>36.35</v>
@@ -11672,13 +11675,13 @@
         <v>2.04</v>
       </c>
       <c r="AF92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AG92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI92">
         <v>4.24</v>
@@ -11695,7 +11698,7 @@
     </row>
     <row r="93" spans="1:38">
       <c r="A93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B93">
         <v>92.596616483004809</v>
@@ -11785,13 +11788,13 @@
         <v>140.65</v>
       </c>
       <c r="AF93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AI93">
         <v>4.1500000000000004</v>
@@ -11808,7 +11811,7 @@
     </row>
     <row r="94" spans="1:38">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B94">
         <v>90.695328263231417</v>
@@ -11898,13 +11901,13 @@
         <v>-17.239999999999998</v>
       </c>
       <c r="AF94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI94">
         <v>4.5</v>
@@ -11921,7 +11924,7 @@
     </row>
     <row r="95" spans="1:38">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B95">
         <v>97.532205494334931</v>
@@ -12011,13 +12014,13 @@
         <v>-1.54</v>
       </c>
       <c r="AF95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AI95">
         <v>3.18</v>
@@ -12034,7 +12037,7 @@
     </row>
     <row r="96" spans="1:38">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B96">
         <v>94.761756945522265</v>
@@ -12124,13 +12127,13 @@
         <v>-14.39</v>
       </c>
       <c r="AF96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI96">
         <v>5.53</v>
@@ -12147,7 +12150,7 @@
     </row>
     <row r="97" spans="1:38">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B97">
         <v>94.963526307620668</v>
@@ -12237,13 +12240,13 @@
         <v>-69.430000000000007</v>
       </c>
       <c r="AF97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AI97">
         <v>7.03</v>
@@ -12260,7 +12263,7 @@
     </row>
     <row r="98" spans="1:38">
       <c r="A98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B98">
         <v>92.596616483004809</v>
@@ -12350,13 +12353,13 @@
         <v>10</v>
       </c>
       <c r="AF98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG98" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH98" t="s">
         <v>49</v>
-      </c>
-      <c r="AH98" t="s">
-        <v>50</v>
       </c>
       <c r="AI98">
         <v>1.48</v>
@@ -12373,7 +12376,7 @@
     </row>
     <row r="99" spans="1:38">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B99">
         <v>91.323917429768741</v>
@@ -12463,13 +12466,13 @@
         <v>-21.59</v>
       </c>
       <c r="AF99" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI99">
         <v>3.89</v>
@@ -12486,7 +12489,7 @@
     </row>
     <row r="100" spans="1:38">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B100">
         <v>93.1864038491386</v>
@@ -12576,13 +12579,13 @@
         <v>-7</v>
       </c>
       <c r="AF100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG100" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH100" t="s">
         <v>90</v>
-      </c>
-      <c r="AH100" t="s">
-        <v>91</v>
       </c>
       <c r="AI100">
         <v>7.56</v>
@@ -12599,7 +12602,7 @@
     </row>
     <row r="101" spans="1:38">
       <c r="A101" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>95.646437994722959</v>
@@ -12689,13 +12692,13 @@
         <v>10.69</v>
       </c>
       <c r="AF101" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH101" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AI101">
         <v>7.73</v>
@@ -12712,7 +12715,7 @@
     </row>
     <row r="102" spans="1:38">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B102">
         <v>95.095452428992715</v>
@@ -12802,13 +12805,13 @@
         <v>62.5</v>
       </c>
       <c r="AF102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI102">
         <v>0.8</v>
@@ -12825,7 +12828,7 @@
     </row>
     <row r="103" spans="1:38">
       <c r="A103" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B103" s="2">
         <v>96.181902840291784</v>
@@ -12916,13 +12919,13 @@
         <v>30</v>
       </c>
       <c r="AF103" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH103" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="AH103" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="AI103" s="2">
         <v>3.87</v>
@@ -12939,7 +12942,7 @@
     </row>
     <row r="104" spans="1:38">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B104">
         <v>90.121061617259045</v>
@@ -13029,13 +13032,13 @@
         <v>7.59</v>
       </c>
       <c r="AF104" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AG104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI104">
         <v>3.56</v>
@@ -13052,7 +13055,7 @@
     </row>
     <row r="105" spans="1:38">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B105">
         <v>96.236225360856736</v>
@@ -13142,13 +13145,13 @@
         <v>-1.92</v>
       </c>
       <c r="AF105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG105" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH105" t="s">
         <v>80</v>
-      </c>
-      <c r="AH105" t="s">
-        <v>81</v>
       </c>
       <c r="AI105">
         <v>6.42</v>
@@ -13165,7 +13168,7 @@
     </row>
     <row r="106" spans="1:38">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B106">
         <v>91.905944435821823</v>
@@ -13255,13 +13258,13 @@
         <v>-4.7</v>
       </c>
       <c r="AF106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH106" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AI106">
         <v>6.93</v>
@@ -13278,7 +13281,7 @@
     </row>
     <row r="107" spans="1:38">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B107">
         <v>95.211857830203314</v>
@@ -13368,13 +13371,13 @@
         <v>-156.96</v>
       </c>
       <c r="AF107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI107">
         <v>3.45</v>
@@ -13391,7 +13394,7 @@
     </row>
     <row r="108" spans="1:38">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B108">
         <v>92.162036318485178</v>
@@ -13481,13 +13484,13 @@
         <v>-20</v>
       </c>
       <c r="AF108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI108">
         <v>2.84</v>
@@ -13504,7 +13507,7 @@
     </row>
     <row r="109" spans="1:38">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B109">
         <v>93.822753375756633</v>
@@ -13540,7 +13543,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M109" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -13597,13 +13600,13 @@
         <v>-22.28</v>
       </c>
       <c r="AF109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AI109">
         <v>6.97</v>
@@ -13620,7 +13623,7 @@
     </row>
     <row r="110" spans="1:38">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B110">
         <v>95.374825391898185</v>
@@ -13656,7 +13659,7 @@
         <v>1.06</v>
       </c>
       <c r="M110" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -13713,13 +13716,13 @@
         <v>-71.58</v>
       </c>
       <c r="AF110" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI110">
         <v>8.0399999999999991</v>
@@ -13736,7 +13739,7 @@
     </row>
     <row r="111" spans="1:38">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B111">
         <v>90.400434580164529</v>
@@ -13826,13 +13829,13 @@
         <v>-1.67</v>
       </c>
       <c r="AF111" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG111" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH111" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AI111">
         <v>5.83</v>
@@ -13849,7 +13852,7 @@
     </row>
     <row r="112" spans="1:38">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B112">
         <v>95.095452428992715</v>
@@ -13939,13 +13942,13 @@
         <v>-35.14</v>
       </c>
       <c r="AF112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH112" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AI112">
         <v>3.85</v>
@@ -13962,7 +13965,7 @@
     </row>
     <row r="113" spans="1:38">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B113">
         <v>93.000155207201615</v>
@@ -14052,13 +14055,13 @@
         <v>16.04</v>
       </c>
       <c r="AF113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AG113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH113" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AI113">
         <v>4.2300000000000004</v>
@@ -14075,7 +14078,7 @@
     </row>
     <row r="114" spans="1:38">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B114">
         <v>90.695328263231417</v>
@@ -14165,13 +14168,13 @@
         <v>-12.59</v>
       </c>
       <c r="AF114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AI114">
         <v>14.15</v>
@@ -14188,7 +14191,7 @@
     </row>
     <row r="115" spans="1:38">
       <c r="A115" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B115" s="2">
         <v>94.001241657612908</v>
@@ -14279,13 +14282,13 @@
         <v>1327.27</v>
       </c>
       <c r="AF115" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH115" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI115" s="2">
         <v>4.6900000000000004</v>
@@ -14302,7 +14305,7 @@
     </row>
     <row r="116" spans="1:38">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B116">
         <v>93.636504733819649</v>
@@ -14392,13 +14395,13 @@
         <v>12.67</v>
       </c>
       <c r="AF116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG116" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH116" t="s">
         <v>90</v>
-      </c>
-      <c r="AH116" t="s">
-        <v>91</v>
       </c>
       <c r="AI116">
         <v>13.09</v>
@@ -14415,7 +14418,7 @@
     </row>
     <row r="117" spans="1:38">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B117">
         <v>90.121061617259045</v>
@@ -14451,7 +14454,7 @@
         <v>1.08</v>
       </c>
       <c r="M117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -14508,13 +14511,13 @@
         <v>-19.940000000000001</v>
       </c>
       <c r="AF117" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI117">
         <v>12.3</v>
@@ -14531,7 +14534,7 @@
     </row>
     <row r="118" spans="1:38">
       <c r="A118" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B118">
         <v>92.82166692534534</v>
@@ -14621,13 +14624,13 @@
         <v>-32.049999999999997</v>
       </c>
       <c r="AF118" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG118" t="s">
         <v>75</v>
       </c>
-      <c r="AG118" t="s">
-        <v>76</v>
-      </c>
       <c r="AH118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI118">
         <v>5.48</v>
@@ -14644,7 +14647,7 @@
     </row>
     <row r="119" spans="1:38">
       <c r="A119" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B119">
         <v>95.095452428992715</v>
@@ -14734,13 +14737,13 @@
         <v>100</v>
       </c>
       <c r="AF119" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AG119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH119" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI119">
         <v>4.93</v>
@@ -14757,7 +14760,7 @@
     </row>
     <row r="120" spans="1:38">
       <c r="A120" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B120">
         <v>91.013503026540434</v>
@@ -14847,13 +14850,13 @@
         <v>53.66</v>
       </c>
       <c r="AF120" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI120">
         <v>2.4900000000000002</v>
@@ -14870,7 +14873,7 @@
     </row>
     <row r="121" spans="1:38">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B121">
         <v>95.537792953593055</v>
@@ -14960,13 +14963,13 @@
         <v>48.38</v>
       </c>
       <c r="AF121" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH121" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AI121">
         <v>8.32</v>
@@ -14983,7 +14986,7 @@
     </row>
     <row r="122" spans="1:38">
       <c r="A122" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B122">
         <v>91.905944435821823</v>
@@ -15073,13 +15076,13 @@
         <v>-26.63</v>
       </c>
       <c r="AF122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI122">
         <v>7.75</v>
@@ -15096,7 +15099,7 @@
     </row>
     <row r="123" spans="1:38">
       <c r="A123" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B123">
         <v>92.162036318485178</v>
@@ -15186,13 +15189,13 @@
         <v>19.77</v>
       </c>
       <c r="AF123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH123" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AI123">
         <v>37.85</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="124" spans="1:38">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B124">
         <v>91.013503026540434</v>
@@ -15278,7 +15281,7 @@
         <v>3.1</v>
       </c>
       <c r="Y124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z124">
         <v>0.82</v>
@@ -15299,13 +15302,13 @@
         <v>-4.4400000000000004</v>
       </c>
       <c r="AF124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH124" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AI124">
         <v>2.08</v>
